--- a/data/trans_bre/P0902-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P0902-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 9,13</t>
+          <t>1,56; 8,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-29,74%</t>
+          <t>-35,58%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 1,69</t>
+          <t>-6,49; 1,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,31; 40,12</t>
+          <t>-67,22; 27,19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>50,19%</t>
+          <t>51,68%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 6,45</t>
+          <t>0,39; 6,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 122,69</t>
+          <t>3,31; 126,93</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>53,64%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 7,15</t>
+          <t>0,29; 12,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 74,16</t>
+          <t>-0,04; 288,83</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>17,47%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 7,32</t>
+          <t>-0,88; 7,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 42,88</t>
+          <t>-4,16; 42,31</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,17</t>
+          <t>12,99</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,95</t>
+          <t>13,22</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>19,66</t>
+          <t>15,78</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,02</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>51,15%</t>
+          <t>79,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>48,44%</t>
+          <t>55,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>82,51%</t>
+          <t>94,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>59,37%</t>
+          <t>12,13%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,25; 17,92</t>
+          <t>6,53; 19,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,23; 22,05</t>
+          <t>6,0; 20,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,51; 24,71</t>
+          <t>9,84; 22,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,56; 19,68</t>
+          <t>-11,01; 13,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,85; 85,84</t>
+          <t>31,2; 136,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27,27; 75,45</t>
+          <t>20,49; 101,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>55,57; 116,56</t>
+          <t>50,07; 172,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,28; 88,01</t>
+          <t>-58,47; 82,72</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,45</t>
+          <t>8,62</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,99</t>
+          <t>15,38</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,46</t>
+          <t>20,75</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>22,32</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>78,98%</t>
+          <t>25,28%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>81,79%</t>
+          <t>34,65%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>62,49%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>49,74%</t>
+          <t>69,24%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-0,36; 17,64</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>7,28; 24,43</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>12,5; 28,54</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>16,01; 28,28</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 61,58</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>14,63; 63,1</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>33,26; 98,95</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>44,31; 100,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6,45</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8,99</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8,46</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6,28</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>78,98%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>81,79%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>91,48%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>53,02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>4,94; 8,12</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>7,22; 10,66</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>6,71; 10,28</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>4,26; 8,14</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3,07; 8,84</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>55,91; 108,45</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>61,6; 105,61</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>67,2; 119,04</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>31,95; 67,53</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>26,97; 88,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P0902-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P0902-Edad-trans_bre.xlsx
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 4,39</t>
+          <t>-0,11; 4,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 4,22</t>
+          <t>-0,66; 4,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,44</t>
+          <t>-0,93; 3,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 8,42</t>
+          <t>1,61; 9,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 351,71</t>
+          <t>-8,9; 330,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 247,16</t>
+          <t>-24,39; 250,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-41,48; 375,18</t>
+          <t>-44,35; 356,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,78</t>
+          <t>1,91; 6,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 4,07</t>
+          <t>-0,55; 4,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 4,14</t>
+          <t>-0,61; 4,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 1,31</t>
+          <t>-6,49; 0,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>54,24; 368,49</t>
+          <t>49,36; 375,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,38; 178,77</t>
+          <t>-17,39; 181,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,13; 179,86</t>
+          <t>-16,36; 182,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-67,22; 27,19</t>
+          <t>-70,83; 17,1</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 6,46</t>
+          <t>1,09; 6,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 8,15</t>
+          <t>2,0; 8,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 6,26</t>
+          <t>1,06; 6,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 6,43</t>
+          <t>0,36; 6,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,23; 182,07</t>
+          <t>13,74; 199,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,92; 169,52</t>
+          <t>23,61; 180,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,55; 189,51</t>
+          <t>18,11; 202,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 126,93</t>
+          <t>3,86; 132,01</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 9,49</t>
+          <t>2,35; 9,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,87; 11,41</t>
+          <t>4,04; 11,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 7,01</t>
+          <t>-0,44; 6,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 12,15</t>
+          <t>0,5; 13,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,41; 175,22</t>
+          <t>26,2; 178,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,92; 170,89</t>
+          <t>40,84; 171,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 92,17</t>
+          <t>-5,79; 91,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 288,83</t>
+          <t>2,79; 286,76</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 6,72</t>
+          <t>-3,31; 6,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,02; 17,36</t>
+          <t>6,55; 17,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,37; 16,39</t>
+          <t>6,2; 16,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 7,17</t>
+          <t>-0,74; 7,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,63; 60,79</t>
+          <t>-19,79; 63,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,0; 132,78</t>
+          <t>31,32; 129,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>41,74; 167,77</t>
+          <t>41,74; 169,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 42,31</t>
+          <t>-3,51; 48,23</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,53; 19,22</t>
+          <t>6,31; 19,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,0; 20,53</t>
+          <t>5,89; 20,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,84; 22,54</t>
+          <t>9,96; 22,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 13,09</t>
+          <t>-10,29; 13,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,2; 136,5</t>
+          <t>30,92; 145,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,49; 101,94</t>
+          <t>21,22; 106,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>50,07; 172,78</t>
+          <t>49,79; 167,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-58,47; 82,72</t>
+          <t>-54,83; 81,99</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 17,64</t>
+          <t>-0,65; 16,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,28; 24,43</t>
+          <t>6,81; 24,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,5; 28,54</t>
+          <t>12,85; 28,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,01; 28,28</t>
+          <t>16,69; 27,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 61,58</t>
+          <t>-1,61; 59,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,63; 63,1</t>
+          <t>13,69; 62,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>33,26; 98,95</t>
+          <t>35,22; 97,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>44,31; 100,64</t>
+          <t>46,4; 96,9</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,12</t>
+          <t>4,88; 7,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,22; 10,66</t>
+          <t>7,25; 10,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,71; 10,28</t>
+          <t>6,81; 10,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,07; 8,84</t>
+          <t>2,89; 9,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>55,91; 108,45</t>
+          <t>55,09; 104,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>61,6; 105,61</t>
+          <t>62,05; 107,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>67,2; 119,04</t>
+          <t>68,18; 119,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>26,97; 88,74</t>
+          <t>26,66; 91,91</t>
         </is>
       </c>
     </row>
